--- a/results/20250402/evaluation_GpositivePseAAC_noisy_0.3.xlsx
+++ b/results/20250402/evaluation_GpositivePseAAC_noisy_0.3.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.39493</v>
+        <v>0.65627</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07802000000000001</v>
+        <v>0.03294</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.19077</v>
+        <v>0.24075</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06354</v>
+        <v>0.06852</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.3689</v>
+        <v>0.66917</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06985</v>
+        <v>0.03294</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.16686</v>
+        <v>0.30818</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05671</v>
+        <v>0.07199</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.3953</v>
+        <v>0.65678</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07332</v>
+        <v>0.03279</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.18999</v>
+        <v>0.23998</v>
       </c>
       <c r="I31" t="n">
-        <v>0.06253</v>
+        <v>0.06542000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.36858</v>
+        <v>0.67103</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06970999999999999</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.16879</v>
+        <v>0.3101</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05564</v>
+        <v>0.07198</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.79926</v>
+        <v>0.56556</v>
       </c>
       <c r="I34" t="n">
-        <v>0.05837</v>
+        <v>0.01855</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.67941</v>
+        <v>0.03121</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0876</v>
+        <v>0.02742</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.79919</v>
+        <v>0.56555</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05821</v>
+        <v>0.01833</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.67941</v>
+        <v>0.03314</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0876</v>
+        <v>0.02684</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.79926</v>
+        <v>0.56556</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05837</v>
+        <v>0.01855</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.67941</v>
+        <v>0.03121</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0876</v>
+        <v>0.02742</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.79919</v>
+        <v>0.56555</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05821</v>
+        <v>0.01833</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.67941</v>
+        <v>0.03314</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0876</v>
+        <v>0.02684</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.47089</v>
+        <v>0.55416</v>
       </c>
       <c r="I66" t="n">
-        <v>0.05479</v>
+        <v>0.02295</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.24201</v>
+        <v>0.10214</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05582</v>
+        <v>0.02493</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.42373</v>
+        <v>0.58296</v>
       </c>
       <c r="I68" t="n">
-        <v>0.05071</v>
+        <v>0.02323</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.20466</v>
+        <v>0.1915</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0501</v>
+        <v>0.03782</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.47199</v>
+        <v>0.5563399999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>0.05558</v>
+        <v>0.02176</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.24277</v>
+        <v>0.10175</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05575</v>
+        <v>0.02495</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.41897</v>
+        <v>0.59002</v>
       </c>
       <c r="I72" t="n">
-        <v>0.05225</v>
+        <v>0.02511</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.20581</v>
+        <v>0.20575</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04793</v>
+        <v>0.03822</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.6082</v>
+        <v>0.54965</v>
       </c>
       <c r="I74" t="n">
-        <v>0.05309</v>
+        <v>0.01838</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.37531</v>
+        <v>0.03892</v>
       </c>
       <c r="I75" t="n">
-        <v>0.06647</v>
+        <v>0.01972</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.59626</v>
+        <v>0.55132</v>
       </c>
       <c r="I76" t="n">
-        <v>0.05436</v>
+        <v>0.02049</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.36492</v>
+        <v>0.05241</v>
       </c>
       <c r="I77" t="n">
-        <v>0.06585000000000001</v>
+        <v>0.02921</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.60711</v>
+        <v>0.55016</v>
       </c>
       <c r="I78" t="n">
-        <v>0.05195</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.37416</v>
+        <v>0.03892</v>
       </c>
       <c r="I79" t="n">
-        <v>0.06562</v>
+        <v>0.01972</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.59626</v>
+        <v>0.5510699999999999</v>
       </c>
       <c r="I80" t="n">
-        <v>0.05341</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.36338</v>
+        <v>0.05203</v>
       </c>
       <c r="I81" t="n">
-        <v>0.06465</v>
+        <v>0.03008</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.43511</v>
+        <v>0.63123</v>
       </c>
       <c r="I106" t="n">
-        <v>0.09433999999999999</v>
+        <v>0.03341</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.2277</v>
+        <v>0.19689</v>
       </c>
       <c r="I107" t="n">
-        <v>0.09156</v>
+        <v>0.07252</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.4159</v>
+        <v>0.6442099999999999</v>
       </c>
       <c r="I108" t="n">
-        <v>0.09989000000000001</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.21074</v>
+        <v>0.25665</v>
       </c>
       <c r="I109" t="n">
-        <v>0.09404999999999999</v>
+        <v>0.07267999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.43691</v>
+        <v>0.63123</v>
       </c>
       <c r="I110" t="n">
-        <v>0.09433</v>
+        <v>0.03417</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.22808</v>
+        <v>0.19535</v>
       </c>
       <c r="I111" t="n">
-        <v>0.09082</v>
+        <v>0.07038</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.4107</v>
+        <v>0.6462</v>
       </c>
       <c r="I112" t="n">
-        <v>0.10219</v>
+        <v>0.03155</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.21189</v>
+        <v>0.26321</v>
       </c>
       <c r="I113" t="n">
-        <v>0.09536</v>
+        <v>0.07248</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.82707</v>
+        <v>0.5524</v>
       </c>
       <c r="I114" t="n">
-        <v>0.06383</v>
+        <v>0.01924</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.70929</v>
+        <v>0.0235</v>
       </c>
       <c r="I115" t="n">
-        <v>0.09683</v>
+        <v>0.02508</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.8268799999999999</v>
+        <v>0.55227</v>
       </c>
       <c r="I116" t="n">
-        <v>0.06405</v>
+        <v>0.01959</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.70891</v>
+        <v>0.02388</v>
       </c>
       <c r="I117" t="n">
-        <v>0.09582</v>
+        <v>0.02581</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.82695</v>
+        <v>0.5523400000000001</v>
       </c>
       <c r="I118" t="n">
-        <v>0.06371</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.70929</v>
+        <v>0.0235</v>
       </c>
       <c r="I119" t="n">
-        <v>0.09643</v>
+        <v>0.02508</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.82663</v>
+        <v>0.55208</v>
       </c>
       <c r="I120" t="n">
-        <v>0.06418</v>
+        <v>0.01948</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.70853</v>
+        <v>0.02388</v>
       </c>
       <c r="I121" t="n">
-        <v>0.09616</v>
+        <v>0.02581</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.4337</v>
+        <v>0.58479</v>
       </c>
       <c r="I146" t="n">
-        <v>0.05286</v>
+        <v>0.03008</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.215</v>
+        <v>0.1476</v>
       </c>
       <c r="I147" t="n">
-        <v>0.04058</v>
+        <v>0.05233</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.38866</v>
+        <v>0.60431</v>
       </c>
       <c r="I148" t="n">
-        <v>0.05842</v>
+        <v>0.03027</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.178</v>
+        <v>0.2301</v>
       </c>
       <c r="I149" t="n">
-        <v>0.04359</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.43364</v>
+        <v>0.58512</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05412</v>
+        <v>0.02927</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.21539</v>
+        <v>0.14722</v>
       </c>
       <c r="I151" t="n">
-        <v>0.04488</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.38231</v>
+        <v>0.61099</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0589</v>
+        <v>0.02639</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.17993</v>
+        <v>0.24281</v>
       </c>
       <c r="I153" t="n">
-        <v>0.04532</v>
+        <v>0.05834</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.61594</v>
+        <v>0.55768</v>
       </c>
       <c r="I154" t="n">
-        <v>0.05824</v>
+        <v>0.02735</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.39615</v>
+        <v>0.04971</v>
       </c>
       <c r="I155" t="n">
-        <v>0.05557</v>
+        <v>0.03027</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.61022</v>
+        <v>0.5598</v>
       </c>
       <c r="I156" t="n">
-        <v>0.06061</v>
+        <v>0.02884</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.38651</v>
+        <v>0.06281</v>
       </c>
       <c r="I157" t="n">
-        <v>0.05842</v>
+        <v>0.03314</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.61639</v>
+        <v>0.55781</v>
       </c>
       <c r="I158" t="n">
-        <v>0.05799</v>
+        <v>0.02725</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.39615</v>
+        <v>0.04971</v>
       </c>
       <c r="I159" t="n">
-        <v>0.05542</v>
+        <v>0.03027</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.61009</v>
+        <v>0.55974</v>
       </c>
       <c r="I160" t="n">
-        <v>0.06054</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.38689</v>
+        <v>0.06319</v>
       </c>
       <c r="I161" t="n">
-        <v>0.05866</v>
+        <v>0.03291</v>
       </c>
     </row>
   </sheetData>
